--- a/crawlingByPython/이태원발 확진환자 크롤링 결과.xlsx
+++ b/crawlingByPython/이태원발 확진환자 크롤링 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="147">
   <si>
     <t>환자 번호</t>
   </si>
@@ -25,280 +25,55 @@
     <t>거주지</t>
   </si>
   <si>
-    <t>조치사항</t>
+    <t>격리시설</t>
+  </si>
+  <si>
+    <t>이동경로</t>
   </si>
   <si>
     <t>확인중</t>
   </si>
   <si>
-    <t>11006</t>
-  </si>
-  <si>
-    <t>11008</t>
-  </si>
-  <si>
-    <t>11007</t>
-  </si>
-  <si>
-    <t>11015</t>
-  </si>
-  <si>
-    <t>11002</t>
-  </si>
-  <si>
-    <t>11004</t>
-  </si>
-  <si>
-    <t>11003</t>
-  </si>
-  <si>
-    <t>11016</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>11005</t>
-  </si>
-  <si>
-    <t>11001</t>
-  </si>
-  <si>
-    <t>10995</t>
-  </si>
-  <si>
-    <t>10991</t>
-  </si>
-  <si>
-    <t>10977</t>
-  </si>
-  <si>
-    <t>10956</t>
-  </si>
-  <si>
-    <t>10947</t>
-  </si>
-  <si>
-    <t>10951</t>
-  </si>
-  <si>
-    <t>10948</t>
-  </si>
-  <si>
-    <t>10949</t>
-  </si>
-  <si>
-    <t>10955</t>
-  </si>
-  <si>
-    <t>10945</t>
-  </si>
-  <si>
-    <t>10941</t>
-  </si>
-  <si>
-    <t>10946</t>
-  </si>
-  <si>
-    <t>10954</t>
-  </si>
-  <si>
-    <t>10961</t>
-  </si>
-  <si>
-    <t>10878</t>
-  </si>
-  <si>
-    <t>10936</t>
-  </si>
-  <si>
-    <t>10932</t>
-  </si>
-  <si>
-    <t>10935</t>
-  </si>
-  <si>
-    <t>10927</t>
-  </si>
-  <si>
-    <t>10929</t>
-  </si>
-  <si>
-    <t>10912</t>
-  </si>
-  <si>
-    <t>10920</t>
-  </si>
-  <si>
-    <t>10930</t>
-  </si>
-  <si>
-    <t>10925</t>
-  </si>
-  <si>
-    <t>10914</t>
-  </si>
-  <si>
-    <t>10921</t>
-  </si>
-  <si>
-    <t>10922</t>
-  </si>
-  <si>
-    <t>10895</t>
-  </si>
-  <si>
-    <t>10896</t>
-  </si>
-  <si>
-    <t>10889</t>
-  </si>
-  <si>
-    <t>10879</t>
-  </si>
-  <si>
-    <t>10891</t>
-  </si>
-  <si>
-    <t>10887</t>
-  </si>
-  <si>
-    <t>10888</t>
-  </si>
-  <si>
-    <t>10890</t>
-  </si>
-  <si>
-    <t>10881</t>
-  </si>
-  <si>
-    <t>10883</t>
-  </si>
-  <si>
-    <t>10898</t>
-  </si>
-  <si>
-    <t>10897</t>
-  </si>
-  <si>
-    <t>10882</t>
-  </si>
-  <si>
-    <t>10880</t>
-  </si>
-  <si>
-    <t>10885</t>
-  </si>
-  <si>
-    <t>10886</t>
-  </si>
-  <si>
-    <t>10884</t>
-  </si>
-  <si>
-    <t>10892</t>
-  </si>
-  <si>
-    <t>10894</t>
-  </si>
-  <si>
-    <t>10893</t>
-  </si>
-  <si>
-    <t>10866</t>
-  </si>
-  <si>
-    <t>10856</t>
-  </si>
-  <si>
-    <t>10859</t>
-  </si>
-  <si>
-    <t>10870</t>
-  </si>
-  <si>
-    <t>10869</t>
-  </si>
-  <si>
-    <t>10867</t>
-  </si>
-  <si>
-    <t>10861</t>
-  </si>
-  <si>
-    <t>10873</t>
-  </si>
-  <si>
-    <t>10863</t>
-  </si>
-  <si>
-    <t>10855</t>
-  </si>
-  <si>
-    <t>10868</t>
-  </si>
-  <si>
-    <t>10850</t>
-  </si>
-  <si>
-    <t>10828</t>
-  </si>
-  <si>
-    <t>10830</t>
-  </si>
-  <si>
-    <t>10836</t>
-  </si>
-  <si>
-    <t>10826</t>
-  </si>
-  <si>
-    <t>10838</t>
-  </si>
-  <si>
-    <t>10827</t>
-  </si>
-  <si>
-    <t>10829</t>
-  </si>
-  <si>
-    <t>10840</t>
-  </si>
-  <si>
-    <t>10831</t>
-  </si>
-  <si>
-    <t>10839</t>
-  </si>
-  <si>
-    <t>10832</t>
-  </si>
-  <si>
-    <t>10833</t>
-  </si>
-  <si>
-    <t>5.14.</t>
-  </si>
-  <si>
-    <t>5.12.</t>
-  </si>
-  <si>
-    <t>5.13.</t>
-  </si>
-  <si>
-    <t>5.11.</t>
-  </si>
-  <si>
-    <t>5.10.</t>
-  </si>
-  <si>
-    <t>5.09.</t>
-  </si>
-  <si>
-    <t>5.9.</t>
-  </si>
-  <si>
-    <t>5.08.</t>
+    <t>5/15</t>
+  </si>
+  <si>
+    <t>5/14</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>5/09</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>5/08</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서대문구</t>
+  </si>
+  <si>
+    <t>용산구</t>
   </si>
   <si>
     <t>광진구</t>
@@ -310,15 +85,9 @@
     <t>강동구</t>
   </si>
   <si>
-    <t>용산구</t>
-  </si>
-  <si>
     <t>영등포구</t>
   </si>
   <si>
-    <t>강남구</t>
-  </si>
-  <si>
     <t>송파구</t>
   </si>
   <si>
@@ -328,7 +97,7 @@
     <t>동대문구</t>
   </si>
   <si>
-    <t>관악구</t>
+    <t>강북구</t>
   </si>
   <si>
     <t>동작구</t>
@@ -355,12 +124,6 @@
     <t>중구</t>
   </si>
   <si>
-    <t>강북구</t>
-  </si>
-  <si>
-    <t>서대문구</t>
-  </si>
-  <si>
     <t>성북구</t>
   </si>
   <si>
@@ -376,6 +139,12 @@
     <t>서울의료원</t>
   </si>
   <si>
+    <t>순천향병원</t>
+  </si>
+  <si>
+    <t>강북삼성병원</t>
+  </si>
+  <si>
     <t>서북병원</t>
   </si>
   <si>
@@ -385,9 +154,6 @@
     <t>서울대병원</t>
   </si>
   <si>
-    <t>순천향병원</t>
-  </si>
-  <si>
     <t>국립중앙의료원</t>
   </si>
   <si>
@@ -425,6 +191,568 @@
   </si>
   <si>
     <t>보라매병원</t>
+  </si>
+  <si>
+    <t>5월 12일 ~ 5월 13일자택_x000D_
+5월 14일12:00 강남구보건소 선별진료소 검사_x000D_
+5월 15일09:00 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 12일11:00 자택(불광1동)도보 → 불광역(6호선) → 11:40효창공원역(6호선) → 근무지 도착(익일 오전 09시까지 근무) _x000D_
+5월 13일09:00 효창공원역(6호선) → 불광역(6호선) → 09:40 자택_x000D_
+5월 14일12:00 종로구보건소 선별진료소 검사 → 12:40 자택(불광1동)_x000D_
+5월 15일14:00 국가지정격리병상(서북병원)으로 이송</t>
+  </si>
+  <si>
+    <t>5월 5일집에 머무름_x000D_
+5월 6일07:00~17:50 타 지역(지하철) → 17:50~ 귀가 후 집에 머무름(지하철)_x000D_
+5월 7일07:00~17:50 타 지역(지하철) → 17:50~ 귀가 후 집에 머무름(지하철)_x000D_
+5월 8일07:00~17:50 타 지역(지하철) → 17:50~ 귀가 후 집에 머무름(지하철)_x000D_
+5월 9일집에 머무름_x000D_
+5월 10일10:18~10:24 GS봉천 한가온점(도보) → 10:24~ 귀가 후 집에 머무름(도보)_x000D_
+5월 11일14:00~ 지하철 이용하여 타 지역으로 이동_x000D_
+5월 12일01:30~14:00 귀가 후 집에 머무름(택시) → 14:00~ 타 지역(지하철)_x000D_
+5월 13일02:03~14:00 귀가 후 집에 머무름(택시) → 14:00~23:10 타 지역(지하철) → 23:10~ 귀가 후 집에 머무름(지하철)_x000D_
+5월 14일11:19~11:20 신성심약국 → 11:20~11:40 관악구 보건소 선별진료소(도보) → 11:40~ 귀가 후 집에 머무름(도보)_x000D_
+5월 15일코로나19 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 11일11:34 신촌원조감자탕 → 12:34 파리바게뜨 카페 → 18:07 노브랜드버거 신촌역점)_x000D_
+5월 12일19:20~20:50 1943 신촌점 → 21:30 리코스타코인노래연습장 신촌점 → 22:00 자택(도보)_x000D_
+5월 13일 ~12:00 타 구 → 12:21 ~ ****약국(신촌동) → 12:40 자택(도보) → 17:50 *치킨 신촌점(신촌동) → 18:00 자택(도보)_x000D_
+5월 14일12:00~15:00 서대문구보건소 선별진료소 → 15:00~15:50 마을버스(03번) → 15:50~16:10 아우네분식 → 16:17 ***약국 (신촌동) → 16:40 자택(도보)</t>
+  </si>
+  <si>
+    <t>5월 9일 ~ 5월 13일자택에 머무름 (자가격리 중) *5월 12일 증상 발현(콧물, 발열)_x000D_
+5월 14일용산구 보건소 선별진료소 검체채취_x000D_
+5월 15일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 10일검체 채취 음성판정 자가격리중_x000D_
+5월 14일증상 발현으로 재검 실시 후 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 13일강남구 보건소에서 검사_x000D_
+5월 14일양성 판정</t>
+  </si>
+  <si>
+    <t>5월 11일07:17~08:20 자택 → 회사(타지역, 자차) → 08:20~21:39 강동구 동선 없음 → 21:39 자택귀가(자차)_x000D_
+5월 12일07:21~08:20 자택 → 회사(타지역, 자차) → 08:20~19:51 강동구 동선 없음 → 19:51 자택귀가(자차)_x000D_
+5월 13일07:22~08:20 자택 → 회사(타지역, 자차) → 08:20~17:28 강동구 동선 없음 → 17:28 자택귀가 → 18:30 배달음식_x000D_
+5월 14일07:00 자택(코로나19 검사 *보건소의사 출장 검체 채취) → 12:30 확진 판정 → 17:00 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 11일08:21 회사(천호동, 도보) → 12:00 점심식사(배달)  → 18:20~18:48 회사에서 집(도보)_x000D_
+5월 12일08:27 회사(천호동, 도보) → 12:00 점심식사(배달)  → 18:20~18:48 회사에서 집(도보)_x000D_
+5월 13일08:27 회사(천호동, 도보) → 12:00 점심식사(배달)  → 18:20~18:48 회사 → 홈런마트(길동, 도보) → 18:48 자택_x000D_
+5월 14일02:00 강동구보건소(자차이동)  → 02:00~ 코로나19 검사(제1선별진료소) → 자택귀가 → 13:30 확진 판정 → 17:30 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 11일06:20 ~ 07:04 김가네(우사단로, 음식점) → 07:05 ~ 07:07 편의점 → 07:10 자택 귀가 *도보_x000D_
+5월 12일22:35 ~ 22:37 편의점 *도보_x000D_
+5월 13일16:57 용산구 보건소 선별진료소 검체채취 *자차 이용_x000D_
+5월 14일09:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 9일1인병실 자가격리중_x000D_
+5월 13일미열증상 영등포구보건소 검사_x000D_
+5월 14일양성 판정</t>
+  </si>
+  <si>
+    <t>5월 6일14:20 병원(타지자체) → 14:35 약국(타지자체) → 16:00 사무실(타 지자체) → 20:15 판매점(타 지자체) → 20:50 음식점(타 지자체) → 21:00 매장(타 지자체)_x000D_
+5월 7일00:00 숙소(타 지자체) → 02:30 자택 → 13:00 사무실(타 지자체) → 20:45 카페(타 지자체) → 21:30 자택_x000D_
+5월 8일12:10 강남구보건소 선별진료소 검사(음성) → 21:30 자택_x000D_
+5월 9일 ~ 5월 10일종일 자택_x000D_
+5월 11일16:40 약국(포스코사거리 근처)_x000D_
+5월 12일종일 자택_x000D_
+5월 13일09:15 강남구보건소 선별진료소 방문 검사 → 10:30 자택_x000D_
+5월 14일08:00 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 8일11:24 집에서 나옴(엘리베이터) → 11:27 버스 통해 타지역 이동 → 13:39 버스 통해 송파구 하차 → 13:44~13:49 롯데슈퍼 신천점(도보) → 13:51 집(도보)_x000D_
+5월 9일11:01 집에서 나옴(엘리베이터) → 11:11~11:25 희망동물병원(잠실동, 도보) → 11:32 집(도보) → 14:42 집에서 나와 택시 이용(엘리베이터) → 15:00 택시 하차 → 15:12~16:23 봉평발아메밀막국수(석촌동, 도보) → 16:23~17:43 *추가 확인중 → 17:43~17:53 버스 이용 → 18:01 집(도보, 엘리베이터) → 21:08 집에서 나옴(엘리베이터)  → 21:23~21:29 롯데슈퍼 신천점(도보) → 21:31 집(도보, 엘리베이터)_x000D_
+5월 10일집에 머무름_x000D_
+5월 11일14:09 집에서 나옴(엘리베이터) → 14:19~15:02 희망동물병원(잠실동, 도보) → 15:04~15:05 더블유약국(잠실동, 도보) → 15:15 집(도보) → 18:04 집에서 나옴(엘리베이터) → 18:10 버스 통해 타지역 이동 → 21:24 버스 통해 송파구 하차 → 21:29~21:35 롯데슈퍼 신천점(도보) → 21:38 집(엘리베이터)_x000D_
+5월 12일10:26 집에서 나옴(엘리베이터) → 10:27~10:37 신천상쾌한이비인후과의원(잠실동, 도보) → 10:41~10:42 더하늘약국(잠실동, 도보, 계단) → 10:46 집(도보, 엘리베이터)_x000D_
+5월 13일15:04 집에서 나옴(엘리베이터) → 15:30~15:50 송파구 보건소 선별진료소(자차) → 16:24 집(자차, 엘리베이터)_x000D_
+5월 14일16:00 서울의료원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 10일 ~ 5월 12일자택에 머무름 (자가격리 중) *5월 12일 증상 발현(발열, 오한, 인후통)_x000D_
+5월 13일용산구 보건소 선별진료소 검체채취 *도보_x000D_
+5월 14일09:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 9일 ~ 5월 10일종일 자택_x000D_
+5월 11일10:30~20:00 타지자체 방문(지하철, 버스) → 21:30~ 자택_x000D_
+5월 12일종일 자택_x000D_
+5월 13일15:57 시흥1동 소재 편의점(도보) → 17:07 시흥1동 소재 편의점(도보) → 17:17 금천구 선별진료소(도보) → 18:36~21:58 타지자체 방문(버스 ,지하철) → 22:30~자택_x000D_
+5월 14일09:00 양성 판정 → 16:00 은평성모병원 이송(구급차량)</t>
+  </si>
+  <si>
+    <t>5월 11일07:30~18:30 타구 → 18:30~ 자택_x000D_
+5월 12일07:30~19:35 타구 → 19:35~ 자택_x000D_
+5월 13일07:30~18:00 타구 →18:30 동대문구보건소 선별진료소 검사 → 19:45 ○○생활용품점 → 20:00 자택 → 21:12 편의점 → 21:20~자택_x000D_
+5월 14일양성판정</t>
+  </si>
+  <si>
+    <t>5월 10일06:00~18:00 타 지역 동선 →18:06~18:07 창2동 ○○식당(도보) → 20:02~20:05 창3동 ○○상점(도보) → 12:43 ~ 12:49 태양할인마트(길동, 도보) → 12:49 ~ 13:13 태양할인마트 → 자택(도보)_x000D_
+5월 11일자택 머무름_x000D_
+5월 12일09:05~10:55 창2동 더베스트 독서실(도보) → 11:03~11:08 창2동 ○○식당(도보)_x000D_
+5월 13일09:16~09:28 창2동 서울이비인후과 진료(도보) → 09:32~09:34 창2동 ○○상점(도보) → 11:00~12:30 도봉구 선별진료소 방문(도보) → 16:11~16:36 쌍문3동 한일병원_x000D_
+5월 14일06:00 양성판정</t>
+  </si>
+  <si>
+    <t>4월 30일 ~ 5월 13일당산동 어머니집 방문_x000D_
+5월 12일베토벤이비인후과 방문_x000D_
+5월 13일여의도성모병원에서 검사를 진행, 확진판정</t>
+  </si>
+  <si>
+    <t>5월 9일자가격리 중 보건소 방문 1차 검사에서 음성판정_x000D_
+5월 11일발열, 인후통, 기침 증상_x000D_
+5월 12일영등포구보건소에서 검사 확진 판정</t>
+  </si>
+  <si>
+    <t>5월 7일 ~ 5월 8일자택 머무름_x000D_
+5월 9일13:47 자택 → 버스정류장(도보) → 14:21 현대백화점 천호점 도착(버스) → 14:31 ~ 14:41 현대백화점 천호점(1차 방문) → 14:43 천호역(지하철 연결통로 에스컬레이터 이용하여 퇴점) → 14:43 ~ 17:45 이동동선 확인 중(본인 기억 못함) → 17:45 ~ 17:59 현대백화점 천호점(2차 방문) → 17:45 ~ 17:59 현대백화점 천호점(2차 방문) → 18:00 ~ 18:18 현대백화점 천호점 → 자택 귀가(도보) → 22:01 ~ 22:14 자택 → 미니스톱 길동현대점(도보) → 22:14 ~ 22:15 자택 귀가(도보)_x000D_
+5월 10일12:30 봄봄약국(길동, 도보) → 12:43 ~ 12:49 태양할인마트(길동, 도보) → 12:49 ~ 13:13 태양할인마트 → 자택(도보)_x000D_
+5월 11일자택 머무름_x000D_
+5월 12일17:06 자택 외출 → 17:45 ~ 17:46 맑은샘 약국(길동, 도보) → 17:46 자택 귀가(도보)_x000D_
+5월 13일11:40 자택 외출 → 11:40 ~ 11:50 지하철 길동역(도보) → 11:50 ~ 12:10 지하철(5호선 길동역 → 5호선 천호역 경유 → 8호선 강동구청역) → 12:10 ~ 12:20 지하철 강동구청역(8호선) → 강동구보건소(도보) → 12:20 ~ 12:50 코로나19 검사(제1선별진료소) → 12:50 ~ 13:00 강동구보건소 → 지하철 강동구청역(8호선, 도보) → 13:00 ~ 13:15 길동역(5호선) 도착 → 13:15 ~ 13:26 자택 귀가(도보) → 21:30 확진(양성) 판정 → 23:43 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 11일- 17:00 인천공항 도착 → 19:30 노원구 보건소 도착(공항버스) → 19:45 검체 채취 → 19:58 자택 귀가(구청 버스, 엘리베이터 혼자 탑승)_x000D_
+5월 12일하루종일 자택(자가격리)_x000D_
+5월 13일13:00 양성판정 → 16:30 서울의료원 입원(보건소 앰블런스 이용)</t>
+  </si>
+  <si>
+    <t>5월 6일08:00~08:50 가양역 - 노량진역 - 서울역(지하철) → 08:50~18:10 타구 동선 → 18:10~19:00 서울역 - 노량진역 - 가양역(지하철) → 19:10 자택(도보)_x000D_
+5월 7일08:00~08:50 가양역 - 노량진역 - 서울역(지하철) → 08:50~23:30 타구 동선(확진환자와 접촉 추정) → 23:30~24:00 홍대입구역 - 당산역 -가양역(지하철) → 24:10 자택(도보)_x000D_
+5월 8일 ~ 5월 10일자택_x000D_
+5월 11일 08:00~08:50 가양역 - 노량진역 - 서울역(지하철) → 08:50~19:00 타구 동선 → 19:00~19:50 서울역 - 노량진역 - 가양역(지하철) → 19:10 자택(도보)_x000D_
+5월 12일10:00 강서보건소 선별진료소 검사(지하철)_x000D_
+5월 13일13:00 양성판정 → 16:00 서북병원 이송(강서보건소 구급차)</t>
+  </si>
+  <si>
+    <t>5월 9일 ~ 5월 11일 자가격리 중으로 외출하지 않음_x000D_
+5월 12일18:01 집에서 나옴(엘리베이터) / 마스크착용 → 18:15∼18:50 송파구 보건소 선별진료소(자차) / 마스크 착용 → 19:13 집(엘리베이터) / 마스크 착용_x000D_
+5월 13일13:30 서울의료원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 9일14:02 집에서 나옴(엘리베이터) / 마스크 착용 → 14:06~14:08 크린토피아 송파파크하비오점(도보) / 마스크 착용 → 14:09~14:12 집(도보, 엘리베이터) / 마스크 착용 → 14:13 택시를 이용해 타지역 이동(엘리베이터) / 마스크 착용_x000D_
+5월 10일12:47 타지역에서 택시를 이용해 송파구 집 도착(엘리베이터) / 마스크 착용_x000D_
+5월 11일16:09 집에서 나와 택시를 이용해 타지역 이동(엘리베이터) / 마스크 착용 → 17:37 택시를 이용해 송파구 도착 / 마스크 착용 → 17:40~17:49 롯데프리미엄푸드마켓 문정점(도보) / 마스크 착용 → 17:52 집(도보, 엘리베이터) / 마스크 착용_x000D_
+5월 12일09:55 집에서 나와 택시를 이용해 타지역 이동(엘리베이터,검체검사 시행) / 마스크 착용 → 10:53 타지역에서 택시를 이용해 송파구 집 도착(엘리베이터) / 마스크 착용 → 19:00 서북병원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 2일 ~ 5월 3일용산구 이태원 클럽 방문_x000D_
+5월 10일 ~ 5월 11일집에 머무름_x000D_
+5월 12일09:20~ 09:50 관악구 보건소 선별진료소 방문, 검사진행(보건소 차량 이용) → 09:50 이후 귀가 후 집에 머무름 (보건소 차량 이용) (15:00) 코로나19 양성판정 통보</t>
+  </si>
+  <si>
+    <t>5월 4일00:15~ 타지자체 → 15:40~ 타지자체→자택 (지하철)_x000D_
+5월 5일10:00~11:00 자택→타지자체 출근 → 11:00~21:00 타지자체 → 21:00~ 타지자체 → 자택 퇴근 (이동중 마스크 착용)_x000D_
+5월 6일10:00~11:00 자택→타지자체 출근 → 11:00~22:12 타지자체 → 22:12~23:34 노량진1동 소재 역전할머니맥주 → 23:36~23:54 노량진1동 타지자체 (택시) → 23:54~04:35 타지자체_x000D_
+5월 7일04:35~04:51 타지자체→자택 (택시)04:55~14:30 자택 → 14:30~14:48 자택→상도2동 소재 의원 (도보) → 14:48~14:52 상도2동 소재 의원 → 14:53~14:56 상도2동 소재 약국 → 14:56~15:10 상도2동 소재 약국→자택 (도보)_x000D_
+5월 8일종일 자택_x000D_
+5월 9일~21:30 자택 →21:30~22:14 자택→타지자체 (지하철) → 22:14~01:37 타지자체_x000D_
+5월 10일01:37~ 타지자체→자택 ~17:21 자택→타지자체 (택시) → 확인중 타지자체→자택 (이동중 마스크 착용)_x000D_
+5월 11일 ~15:00 자택→보건소 (도보) → 15:00~18:05 동작구보건소 (코로나 검사) → 18:05~18:17 보건소→자택 (도보) → 18:17~19:35 자택 → 19:35~19:37 자택→편의점 (도보) → 19:37~19:41 상도2동 소재 편의점 → 19:41~19:43 편의점→자택 (도보)_x000D_
+5월 12일11:00∼ 양성 통보</t>
+  </si>
+  <si>
+    <t>5월 7일21:36~22:54 가왕 노래연습장(창1동) 방문(도보)_x000D_
+5월 8일12:55~18:12 독서실 하버드킹(창1동) 이용(도보)_x000D_
+5월 9일16:49~19:27 아이비스 PC방(쌍문3동)(도보) → 19:38~20:18 홍대 돈부리(창1동)(도보) → 20:21~21:15 설빙 쌍문점(창1동)(도보)_x000D_
+5월 10일12:23~ 편의점(창1동)(도보) → 12:59~13:19 독서실 하버드킹(창1동)(도보) → 19:23~ 음식점(창1동)_x000D_
+5월 11일13:30~ 선별진료소 방문(도보)_x000D_
+5월 12일08:00 확진</t>
+  </si>
+  <si>
+    <t>5월 9일 14:22~ 외출(도보) → 14:40~15:54 이디야커피(하계1동) → 15:55~16:12 노래방 이동(도보) → 16:13~18:23 딩동댕 노래방(중계2.3동) → 18:23~18:36 홈플러스 이동(도보) → 18:36~19:06 홈플러스 80티 카페(중계2.3동) → 19:07~19:40 음식점 이동(도보) → 19:47~22:53 이모네 전집(중계2.3동) → 23:25 자택 귀가(엘리베이터 혼자 탑승, 도보)_x000D_
+5월 10일자가격리 하루종일 자택_x000D_
+5월 11일 ~14:00 자택 → 14:00~14:20 노원구 보건소 이동(자차) →14:20~14:50 검체 채취 →14:50~15:20 자택 이동 및 도착(자차) →15:20~ 자택 ※ 증상발현(22:00경) : 오한, 어지러움, 근육통_x000D_
+5월 12일08:00 양성판정 → 14:30 서울의료원 입원</t>
+  </si>
+  <si>
+    <t>5월 9일11:34 편의점 → 자택_x000D_
+5월 10일23:35 편의점 → 자택_x000D_
+5월 11일11:30 동대문구보건소 선별진료소 검사 → 편의점 → 12:30 자택</t>
+  </si>
+  <si>
+    <t>5월 9일16:32 자택 외출(타지역 방문) → 23:57 버스(6211번) 꽃재교회앞 하차, 도보로 자택 귀가_x000D_
+5월 10일11:43 자택 외출 마을버스(성동03-1)이용 왕십리역 하차, 분당선 환승 후 타지역 이동_x000D_
+5월 11일10:30 용산구보건소 선별진료소 방문해 코로나19 검사(택시) → 11:47 자택_x000D_
+5월 12일09:00 용산구 보건소 확진 판정 → 성동구 보건소 통보 → 14:20 서울의료원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 8일14:30 강서구보건소 검체 채취(자가용) - 음성판정_x000D_
+5월 9일지인집(목4동)_x000D_
+5월 10일17:00 은평구보건소 검체 채취(자가용)_x000D_
+5월 11일저녁 양성판정 → 서북병원 이송, 자택 및 주변 방역 완료</t>
+  </si>
+  <si>
+    <t>5월 9일강남구 직장확진자의 직장 내 접촉_x000D_
+5월 10일16:00 강남구보건소 선별진료소 검사_x000D_
+5월 11일10:00 양성판정 → 16:00 서북병원 이송(강서보건소 구급차)</t>
+  </si>
+  <si>
+    <t>5월 6일09:00 출근(자택-자차-상일동역-군자역-논현역-버스-회사) → 09:18~22:30 강동구 이동동선 없음 → 22:30~24:00 퇴근(버스-논현역-군자역-상일동역-버스-자택)_x000D_
+5월 7일09:00 출근 → 09:18~22:57 강동구 이동동선 없음 → 22:57~24:00 퇴근_x000D_
+5월 8일09:00 출근 → 09:18~22:30 강동구 이동동선 없음 → 22:30~24:00 퇴근_x000D_
+5월 9일10:20~10:45 출근(자차 이동) → 10:45~18:30 강동구 이동동선 없음 → 18:30~19:00 퇴근(자차 이동)_x000D_
+5월 10일10:00~10:40 자택 → 강동구 보건소(제1선별진료소),코로나19 진단검사→ 10:40~11:00 강동구보건소→자택(자차 이동) → 17:30 확진판정 → 20:00 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 7일12:04 집에서 나옴(엘리베이터) / 마스크 착용 → 12:16~12:57 장안면옥 가락동점(도보) / 마스크 미착용 → 13:09~15:16 호디박스 가락본점(도보) / 마스크 미착용 → 15:27~16:07 집(도보, 엘리베이터) / 마스크 미착용 → 16:08~16:27 집 앞 장터(엘리베이터, 도보) / 마스크 착용 → 16:28 집(도보, 엘리베이터) / 마스크 착용_x000D_
+5월 8일집에 머무름_x000D_
+5월 9일16:23 집에서 나옴(엘리베이터) / 마스크 착용 → 17:00~17:10 송파구 보건소 선별진료소(자차) / 마스크 착용 → 17:33 집(자차, 엘리베이터) / 마스크 착용_x000D_
+5월 10일16:30 서울의료원으로 이송</t>
+  </si>
+  <si>
+    <t>영내 거주, 외부 이동동선 없음_x000D_
+5월 9일15:00 국군수도병원 입원</t>
+  </si>
+  <si>
+    <t>5월 2일 ~ 3일이태원 클럽 방문_x000D_
+5월 9일 ~ 11일자택_x000D_
+5월 11일서초구 선별진료소 검사(택시 이용) 후 확진 → 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 8일07:30 ~ 08:00(양평) 자택에서 서울시 소재 회사 이동(자차) 이후 서울에서 계속 머묾_x000D_
+5월 9일18:00 ~ 18:55(양평) 서울 → 양평 이동 → 18:55 ~ 19:55(양평) 서종면 ○○식당 → 19:55 ~ 20:11(양평) 서종면 ○○카페 → 서종면 ○○갤러리(노 키즈 존) → 서종면 ○○카페 → 20:11 ~ 21:00(양평) 서종면 ○○카페 → 21:00 ~ 21:30(양평) 자택_x000D_
+5월 10일16:00 ~ 16:30(양평) 자택 → 서울시 소재 회사 이동(자차) → 16:30 ~ 16:40(서울) 회사(사무실 머묾) → 16:40 ~ 16:55(서울) 회사 → 강남구 보건소 선별진료소 이동(자차) → 16:55 ~ 17:30(서울) 강남구 보건소 선별진료소 코로나19 검체 채취 → 18:00 ~ 19:00(서울) 강남구 보건소 선별진료소 → 자택(자차)_x000D_
+5월 11일01:05 ~ 01:07(양평) 자택 → 강상면 ○○편의점 이동(자차) → 01:07 ~ 01:09(양평) 강상면 ○○편의점 → 01:09 ~ 01:11(양평) 강상면 ○○편의점 → 자택(자차) → 09:00(양평) 강남구 보건소에서 확진자에게 검사 결과 통보 → 17:35(양평) 경기도의료원 안성병원 이송</t>
+  </si>
+  <si>
+    <t>5월 7일08:40~21:00 회사(타자치구, 지하철) → 21:00~ 자택_x000D_
+5월 8일08:40~20:40 회사(타자치구, 지하철) → 20:40~20:47 사당1동 소재 편의점(도보) → 20:47~ 자택(편의점에서 도보 이동)_x000D_
+5월 9일10:00~24:00 회사(타자치구, 지하철) → 24:00~ 자택_x000D_
+5월 10일09:50~10:05 동작구보건소(오토바이) → 10:05~11:00 동작구보건소 검사실시 → 11:00~ 자택(오토바이)_x000D_
+5월 11일09:00 확진 판정(검사결과 양성)</t>
+  </si>
+  <si>
+    <t>5월 6일12:40~13:00 명동역 하차 → 13:00~14:00 서울로 산책 → 14:00~15:00 자택_x000D_
+5월 7일 ~ 5월 8일자택_x000D_
+5월 9일16:00~18:00 중구보건소 선별진료실 → 18:30~18:37 마트 →18:37 자택_x000D_
+5월 10일자택_x000D_
+5월 11일14:40 서북병원 음압격리병상 이송(중구보건소 앰뷸란스)</t>
+  </si>
+  <si>
+    <t>5월 8일09:30∼09:34 120번(광산사거리-수유역) → 09:37∼09:43 지하철 4호선(수유역-창동역) → 10:00∼21:25 타구 소재 직장 →21:31∼21:37 지하철 4호선(창동역-수유역) → 21:42∼21:51 마트 → 21:54∼21:56 1165번(수유역-광산사거리) → 21:56~ 자택(수유2동)_x000D_
+5월 9일09:34∼09:39 120번(광산사거리-수유역) → 09:42∼09:48 지하철 4호선(수유역-창동역) → 10:00∼21:10 타구 소재 직장 → 21:18∼21:24 지하철 4호선(창동역-수유역) → 21:27∼21:34 도봉02번(수유역-광산사거리) → 21:40∼23:35 명가 옛날통닭(수유3동) → 23:35∼23:41 자택_x000D_
+5월 10일13:29∼13:45 강북구보건소 선별진료소 이동 → 13:45∼15:30 선별진료소 검사(번2동) → 15:30∼15:43 자택 이동_x000D_
+5월 11일08:30 자택 대기 중 검사 결과 양성 확진 판정→11:20∼12:00 서울의료원 이송(119 구급차) → 12:00 서울의료원 격리병상 입원</t>
+  </si>
+  <si>
+    <t>5월 9일강남구 확진환자의 직장 내 접촉_x000D_
+5월 10일09:40 강서구 선별진료소 검사_x000D_
+5월 11일09:00 양성판정 → 14:00 서북병원 이송(강서보건소 구급차)</t>
+  </si>
+  <si>
+    <t>5월 6일13:49 ~ 13:54 모모(이태원로, 카페) → 15:06 ~ 15:07 편의점 → 19:30 타구 이동 *버스 이용 → 22:30 자택 *버스 이용_x000D_
+5월 7일13:00 타구 이동 *버스 이용 → 16:00 자택 도착 *버스 이용_x000D_
+5월 8일08:36 ~ 08:41 마트 *도보 → 17:38 약국 *도보 → 20:00 타구 이동 *택시 이용_x000D_
+5월 9일00:30 자택 도착 *택시 이용 → 19:30 타구 이동 *택시 이용 → 21:30 자택 도착 *택시 이용_x000D_
+5월 10일08:50 ~ 08:51 마트 *도보 → 12:30 용산구 보건소 선별진료소 검체채취_x000D_
+5월 11일07:30 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 2일용산구 이태원 킹클럽 방문_x000D_
+5월 7일00:00~07:02 쿡PC(신림동길 7-1, 2층) → 07:02~ 17:40 도보로 귀가, 집에 머무름 → 17:53~ 18:45 탕화쿵푸마라탕(남부순환로 1594-1, 2층) → 19:01~ 19:56 공차 신림역점(남부순환로 1601) → 19:56~ 20:20 도보로 귀가, 집에 머무름 → 20:20~ 21:00 관악구보건소 선별진료소 방문, 검사진행 (버스 이용) → 21:00 이후 도보로 귀가, 집에 머무름_x000D_
+5월 8일22:58~ 22:59 CU관악문화점(신림동2길 7-10) → 23:03~ 23:35 자매멸치국수(관천로 12길 30) → 23:35~ 23:46 제일할인마트(신림동7길 23) (도보 이동) → 23:46 이후 도보로 귀가, 집에 머무름_x000D_
+5월 9일집에 머무름_x000D_
+5월 10일09:30~ 10:30 관악구 보건소 선별진료소 방문, 검사진행(보건소 차량 이용)) → 10:30 이후보건소 차량으로 귀가, 집에 머무름_x000D_
+5월 11일코로나19 양성판정</t>
+  </si>
+  <si>
+    <t>5월 10일14시경 자택 출발 → 14:30 서대문구보건소 선별진료소 검사 → 16:00 자택귀가(도보이용) → 16:00 ~ 자택에서 머무름_x000D_
+5월 11일08:00 양성판정 → 14:00 서북병원 이송</t>
+  </si>
+  <si>
+    <t>5월 8일타 지역 동선_x000D_
+5월 9일자택에 머무름_x000D_
+5월 10일13:00 도봉구 선별진료소 방문 / 도보 / 마스크 착용_x000D_
+5월 11일08:00 확진</t>
+  </si>
+  <si>
+    <t>5월 7일14:00~14:20 ○○음식점 → 15:00~15:05 ○○커피숍 → 15:05 자택_x000D_
+5월 8일~16:40 타 자치구 →16:40 자택_x000D_
+5월 9일~14:00 타 시도 → 14:00~14:40 성북구보건소 선별진료소 검사 → 14:40 자택_x000D_
+5월 10일양성 확인</t>
+  </si>
+  <si>
+    <t>5월 7일18:47 해인약국(화양동) → 19:13~19:58 소신이쏘 건대점(화양동)_x000D_
+5월 8일관내동선 없음_x000D_
+5월 9일13:46 보건소 검체 채취</t>
+  </si>
+  <si>
+    <t>5월 6일08:00 타구 이동 → 12:30 자택 도착 → 18:00 ~ 21:30 카페 및 식당 → 21:30 ~ 21:35 헬스장 등록 → 22:10 ~ 22:30 PC방 → 22:30 자택 도착_x000D_
+5월 7일08:00 타구 이동 → 12:30 자택 도착 → 16:00 ~ 17:30 타지역 이동 *버스(421, 8800) 이용 → 21:57 우리 구 도착, 편의점 *버스 이용(8800,421) → 22:00 자택 도착 → 23:30 ~ 02:00 PC방_x000D_
+5월 8일증상 발현(기침, 가슴통증) 02:05 자택 도착 *도보_x000D_
+5월 9일02:30 순천향병원 선별진료소 검체채취 *택시 이용, 마스크 착용_x000D_
+5월 10일양성 판정</t>
+  </si>
+  <si>
+    <t>5월 7일10:30 자택에서 나옴(엘리베이터 이용, 마스크 착용, 동승자없음) → 10:45 ~11:05 성수2가1동 소재 직장 →11:10~12:00 택시이용, 김포공항으로 이동 → 12:30 에어부산 항공편 이용해 지방으로 이동 *항공편: 에어부산 BX8813(김포→부산), 마스크 착용_x000D_
+5월 8일14:30 지방에서 KTX 이용해 서울로 이동 *편명: KTX 140(부산→서울), 마스크 착용 → 17:10~18:15 지하철 이동(서울역-&gt;뚝섬역) → 18:30 자택 귀가(엘리베이터 이용, 마스크 착용, 동승자 없음)_x000D_
+5월 9일08:05 자택 출발(엘리베이터 이용, 마스크 착용, 동승자 없음) → 08:25~09:10 용산구 소재 순천향병원 방문(자차 이용, 마스크 착용) → 09:30 순천향병원 선별진료소에서 코로나19 검사 → 12:35 자택 귀가 후 자가격리 실시_x000D_
+5월 10일12:30 확진 판정 → 16:30 순천향병원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 7일21:43 음식점(강남을지병원앞교차로)_x000D_
+5월 8일01:13 음식점(신사역 8번 출구) → 01:45 편의점(신사역 8번 출구) → 02:10 음식점(신사역 8번 출구) → 02:28 편의점(청담역 1번 출구) → 02:30 자택_x000D_
+5월 9일09:00 강남구보건소 선별진료소 검사 → 09:30 자택_x000D_
+5월 10일08:00 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 5일타구 활동_x000D_
+5월 6일집에 머무름_x000D_
+5월 7일타시도 활동_x000D_
+5월 8일18:08 ~ 18:09 편의점(보문점)｜마스크 착용, 점원 마스크 착용, 접촉자 없음_x000D_
+5월 9일16:36 성북구보건소에서 코로나19 검사 실시 → 17:18 ~ 17:24 편의점(보문점)_x000D_
+5월 10일검사 결과 양성 확진, 서울의료원 입원(보건소 엠뷸런스 이용)</t>
+  </si>
+  <si>
+    <t>5월 7일10:00 사무실 → 13:00 음식점(개나리아파트교차로) → 19:00 자택_x000D_
+5월 8일10:08 카페(개나리아파트교차로) → 10:14 편의점(르네상스호텔사거리) → 11:00 사무실 → 13:00 음식점(역삼역교차로) →13:55 약국(개나리아파트교차로) → 14:00 사무실 → 19:30 자택 → 20:19 마트(역삼초교교차로) → 20:35 자택_x000D_
+5월 9일14:59 편의점(역삼초교교차로) → 15:30 강남구보건소 선별진료소 검사 → 16:00 자택_x000D_
+5월 10일08:00 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 7일10:05∼11:00 출근 → 11:00∼21:30 타구 소재 직장 → 21:30∼23:24 퇴근/자택_x000D_
+5월 8일10:06∼11:00 출근 → 11:00∼21:30 타구 소재 편의점 및 직장 → 21:30∼23:03 퇴근/자택_x000D_
+5월 9일15:02∼15:40 강북구보건소 선별진료소 이동 → 15:40∼16:05 선별진료소 검사 → 16:05∼16:46 자택_x000D_
+5월 10일08:30 자택 대기 중 검사 결과 양성 확진 판정 → 15:10∼16:00 서울의료원 이송  119 구급차</t>
+  </si>
+  <si>
+    <t>5월 7일04:40 편의점(역삼초교교차로) → 14:53 카페(역삼역교차로) → 19:27 음식점(신논현역 5번 출구) → 19:35 자택 → 21:38 판매점(신사역 8번 출구) → 23:00 음식점(신사역 8번 출구)_x000D_
+5월 8일01:13 음식점(신사역 8번 출구) → 02:10 음식점(신사역 8번 출구) → 02:30 자택 → 17:43 편의점(역삼초교교차로) → 18:36 마트(구역삼세무서교차로) → 19:06 판매점(강남역 4번 출구) → 22:00 음식점(역삼초교교차로) → 23:00 자택_x000D_
+5월 9일08:20 강남구보건소 선별진료소 검사 → 10:00 자택_x000D_
+5월 10일08:00 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 7일21:50 미용실(교보타워사거리) → 23:40 음식점(논현역 2번 출구)_x000D_
+5월 8일01:00 자택 → 23:48 편의점(논현역 2번 출구)_x000D_
+5월 9일19:15 강남구보건소 선별진료소 검사 → 21:30 자택_x000D_
+5월 10일08:00 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 8일08:00~ 08:15 도보로 지하철 2호선 신림역 이동 후 지하철 승차, 타 지역으로 이동 → 08:15~19:00 타 지역 동선 → 19:00 이후 지하철 이용 지하철 2호선 신림역 하차 도보 이용 귀가, 집에 머무름_x000D_
+5월 9일09:00~ 12:00 버스 이용 용산구 보건소 선별진료소 방문, 검사진행 → 12:30 이후 지인 차량으로 귀가, 집에 머무름_x000D_
+5월 10일코로나19 양성판정 국립중앙의료원 이송조치</t>
+  </si>
+  <si>
+    <t>5월 8일07:30~ 15:30 택시 이용 타 지역으로 이동 타 지역 동선→ 15:30 이후 버스 이용 귀가, 집에 머무름_x000D_
+5월 9일13:20~ 14:30 택시 이용 관악구 보건소 선별진료소 방문, 검사진행 →14:30 이후 도보로 귀가, 집에 머무름_x000D_
+5월 10일코로나19 양성판정 서울의료원 이송조치</t>
+  </si>
+  <si>
+    <t>5월 6일09:00∼11:30 노량진1동 콩고휘트니스센터(도보) → 11:40~13:30 자택(도보) → 13:30~13:52 노량진동 소재 음식점(도보) → 13:52~16:20 자택(도보) → 16:20~16:25 노량진동 헌혈의 집(도보) → 16:25∼16:30 자택(도보) →16:30~18:30 노량진동 투썸플레이스(도보) → 18:30~ 자택 (도보)_x000D_
+5월 7일09:00~11:30 노량진1동 콩고휘트니스(도보) → 11:40~12:30 자택(도보) → 12:30~13:00 라밥 노량진2호점(도보), 혼자식사 → 13:00~13:40 자택(도보) → 13:40~18:25 스타벅스 노량진동점(도보) → 18:25~18:30 노량진동 소재 음식점(도보) → 18:30~ 자택(도보)_x000D_
+5월 8일~ 15:00 자택 → 15:00~15:08 노량진동 소재 약국 (도보) → 15:08~15:40 노량진동 소재 음식점 (도보) → 15:40~ 자택(도보)_x000D_
+5월 9일09:30~10:50 : 자택에서 동작구 보건소(마을버스) → 10:50~11:00 노량진동 소재 음식점(도보) → 11:00~ 자택 (도보)_x000D_
+5월 10일09:00∼ 확정 통보(양성판정)</t>
+  </si>
+  <si>
+    <t>5월 4일07:30~19:50 타지자체 출퇴근(버스/지하) → 19:50~21:40 신대방동 소재 음식점(도보) → 21:40~22:40 상도4동 압구정 봉구비어 상도동점(도보)22:40 → 자택(도보)_x000D_
+5월 5일00:05~07:35 자택에서 용산구 이태원 클럽 이용 후 자택이동(택시) → 07:35~22:00 자택 → 22:00~22:30 상도동 소재 커피숍(택시, 테이크 아웃) → 20:30~22:45 상도동 소재 음식점(도보, 테이크 아웃) → 22:00 자택(도보)_x000D_
+5월 6일07:30~21:09 타지자체 출퇴근(버스/지하철) → 21:09~21:25 대방동 소재 음식점(접촉자 없음) → 21:25~ 자택(도보)_x000D_
+5월 7일07:30~20:00 타지자체 출퇴근(버스/지하철) → 20:00~ 자택_x000D_
+5월 8일06:10~22:50 타지자체 출퇴근(버스/지하철) → 22:50~23:05 상도동 소재 편의점(도보) → 23:05~ 자택(도보)_x000D_
+5월 9일09:05~09:20 동작구보건소(도보) → 09:20~10:45 동작구보건소(코로나19 검사 실시) 10:45~ 자택(도보)_x000D_
+5월 10일09:00 확정 통보(양성판정)</t>
+  </si>
+  <si>
+    <t>5월 5일00:30 올(우사단로, 주점) → 01:00 ~ 01:50 주점 → 02:00 ~ 03:20 주점 → 03:30 ~ 03:50 퀸(우사단로, 주점) → 04:00 ~ 05:00 킹클럽(우사단로, 클럽) → 05:30 ~ 05:45 자택 이동 → 05:45 ~ 자택 머무름_x000D_
+5월 6일12:43 약국 → 12:48 마트 → 13:00 자택 → 19:34 마트 → 19:40 자택_x000D_
+5월 7일12:00 ~ 12:36 타구 이동 → 12:45 자택 도착 → 18:22 편의점 → 18:36 마트→ 18:40 자택 도착 → 22:00 제과점 → 22:10 자택 도착_x000D_
+5월 8일종일 자택에 머무름_x000D_
+5월 9일14:36 용산구 보건소 선별진료소 검체채취 → 15:00 자택 도착, 택시 이용_x000D_
+5월 10일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 5일이태원 소재 클럽에 방문_x000D_
+5월 9일17시 용산구보건소 검체 채취_x000D_
+5월 10일오전 양성판정 → 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 7일09:00 직장 출근 → 12:00 ~ 12:30 음식점 → 12:30 ~ 18:00 직장 → 18:30 타구 이동 *자차 이용 → 20:30 자택 도착_x000D_
+5월 8일09:00 직장 출근 → 12:00 ~ 12:30 구내식당 → 12:30 ~ 12:35 베이커리 → 12:35 ~ 18:00 직장 → 18:10 ~ 19:30 음식점 → 20:00 자택 도착 *버스 이용, 마스크 착용_x000D_
+5월 9일용산구 보건소 선별진료소 검체채취_x000D_
+5월 10일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 8일08:54~ 08:56 CU서울대서연점(관악로 132) → 08:56~ 21:45도보로 지하철 2호선 서울대입구역 이동 후 지하철 승차, 타 지역으로 이동 → 21:45이후 가족 차량으로 귀가, 집에 머무름_x000D_
+5월 9일09:30~ 12:30 택시 이용 관악구 보건소 선별진료소 방문, 검사진행 →14:30 이후 도보로 귀가, 집에 머무름_x000D_
+5월 10일코로나19 양성판정 국립중앙의료원 이송조치</t>
+  </si>
+  <si>
+    <t>5월 4일08:30 집 출발 → 08:39 용마산역 1번 출구 → 08:59~23:08 타구 지역 내 활동 → 23:42 용마산빌라 정류장 도착 → 23:47 집 도착_x000D_
+5월 5일08:30 집 출발 → 08:34 용마산빌라 정류장 (4212번 버스 탑승) → 09:09~24:00 타구 지역 내 활동_x000D_
+5월 6일00:00~00:17 집 도착 → 00:18~00:19 GS25 면목샘터점(면목로21길 9) → 00:22 집 도착_x000D_
+5월 7일08:30 집 출발 → 도보 08:38 용마산역 1번출구 → 09:02~23:22 타구 지역 내 활동 → 23:56 용마산 빌라 정류장 도착 (4212번 버스 이용) → 23:59 집 도착_x000D_
+5월 8일08:30 집 출발 → 도보 08:38 용마산역 1번출구 → 지하철 09:02~22:30 타구 지역 내 활동 → 택시 22:30~22:54 집 도착_x000D_
+5월 9일08:30 집 출발 → 택시 08:30~08:50 중구 보건소 08:50~10:00 중구 선별진료소 10:00~15:30 타구 지역 내 활동 → 택시 16:04 집 도착_x000D_
+5월 10일11:10 서울의료원 이송 → 앰뷸런스 11:30 서울의료원 입원</t>
+  </si>
+  <si>
+    <t>5월 6일 ~ 5월 7일종일 자택에 머무름_x000D_
+5월 8일증상 발현(인후통) 13:20 ~ 13:37 용산구 보건소 선별진료소 방문 및 검체채취 *자차 이용 → 13:50 자택 도착 *자차 이용_x000D_
+5월 9일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 4일14:46 ~ 15:30 음식점 → 15:35 ~ 18:50 PC방 → 18:53 ~ 19:33 음식점 → 19:33 잡화점 → 19:38 자택_x000D_
+5월 5일09:30 ~ 10:00 타구 이동 *버스(405번) → 21:24 우리 구 이동, 잡화점 → 21:30 자택_x000D_
+5월 6일증상 발현(가래) 10:00 ~ 10:33 타구 이동 *버스(421번)_x000D_
+5월 7일14:30 ~ 15:06 우리 구 이동 자택 도착 *택시 → 22:01 편의점 *도보 → 22:05 자택_x000D_
+5월 8일13:00 용산구 보건소 선별진료소 검체채취 후 귀가 *도보_x000D_
+5월 9일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 6일타지역에 계속 머무름_x000D_
+5월 7일19:00 우리 구 이동 *지하철 이용 → 19:39 ~ 20:00 카페 → 20:15 자택 → 20:53 편의점 → 21:05 ~ 22:04 음식점 *도보 → 22:05 자택_x000D_
+5월 8일증상 발현(기침) 02:56 ~ 04:35 PC방 → 04:40 편의점 → 04:45 자택 → 12:03 ~ 12:10 용산구 보건소 선별진료소 방문 및 검체채취 → 12:59 편의점 → 13:10 편의점 → 13:15 자택_x000D_
+5월 9일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 7일19:57 영국에서 입국, 서초구보건소 이동(리무진 이용) 후 검사_x000D_
+5월 8일자가격리_x000D_
+5월 9일재검사 후 확진</t>
+  </si>
+  <si>
+    <t>5월 8일05:30 필리핀에서 인천공항 입국(마스크 착용)(해외입국자 전용리무진 이용) → 09:05 : 서대문구 선별진료소 검체 채취_x000D_
+5월 9일12:00 : 양성판정 → 15:30 보라매병원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 5일00:53 집에서 나옴(엘리베이터) / 마스크 미착용 → 01:12~02:54 탐앤탐스 잠실새내역점(택시) / 마스크 미착용 → 02:59~04:43 엔젤스 코인노래연습장 잠실신천점(도보) / 마스크 미착용 → 04:49~05:23 롯데리아 잠실새내역점(도보) / 마스크 미착용 → 05:35~06:00 근처 야외 벤치(도보) / 마스크 미착용 → 06:12~15:44 집(버스, 엘리베이터) / 마스크 미착용 → 16:15~16:25 서울리즘 카페(송파동, 엘리베이터, 지인차) / 마스크 미착용 → 16:50~22:40 타지역(지인차) → 23:02 지인차 통해 집(엘리베이터) / 마스크 미착용_x000D_
+5월 6일20:17~20:22 집 1층 현관 쓰레기장(엘리베이터) / 마스크 착용 → 20:23 집_x000D_
+5월 7일집에 머무름_x000D_
+5월 8일09:04 집에서 나옴(엘리베이터) / 마스크 착용 → 09:20~09:45 송파구 보건소 선별진료소(자차) / 마스크 착용 → 10:08 집(자차, 엘리베이터) / 마스크 착용_x000D_
+5월 9일17:00 서울의료원으로 이송</t>
+  </si>
+  <si>
+    <t>5월 5일이태원 클럽 방문_x000D_
+5월 8일15:00 양천구 홍익병원 선별진료소 검사_x000D_
+5월 9일13:00 양성판정 → 16:00 은평성모병원 이송(강서보건소 구급차)</t>
+  </si>
+  <si>
+    <t>5월 4일112:00~ 도보 이용 지하철 2호선 낙성대역 도착, 지하철 이용 타 지역으로 이동_x000D_
+5월 5일13:00~ 23:00 지하철 이용 낙성대역 하차 후, 도보 이용 귀가, 집에 머무름 → 23:00~ 도보 이용 지하철 2호선 낙성대역 도착, 지하철 이용 타 지역으로 이동_x000D_
+5월 6일타 지역 동선 21:00~ 지하철 이용 낙성대역 하차 후, 도보 이용 귀가, 집에 머무름_x000D_
+5월 7일집에 머무름_x000D_
+5월 8일16:30~19:00 관악구 보건소 선별진료소 방문, 검사진행(도보 이용) → 19:00~ 도보 이용 귀가 후, 집에 머무름_x000D_
+5월 9일코로나19 양성판정</t>
+  </si>
+  <si>
+    <t>5월 3일18:59~20:30 피트니스아레나 광나루점(광장동)_x000D_
+5월 4일18:00~21:00 고오기 건대입구점(자양3동) → 21:20~23:17 슈터스타노래타운 건대입구점(화양동) → 23:17 GS25 건대제일점(화양동)_x000D_
+5월 5일16:38~16:41 할리스커피 광장점(광장동)_x000D_
+5월 6일19:00~20:30 피트니스아레나 광나루점(광장동)_x000D_
+5월 8일17:12 보건소 검체 채취_x000D_
+5월 9일07:55 양성 확진판정</t>
+  </si>
+  <si>
+    <t>5월 1일17:57 해남닭집(화양동)_x000D_
+5월 4일03:25 이마트24 화양행운점 → 16:57 GS슈퍼 광진화양점 → 19:42 테이큰커피 2호점(화양동) → 22:36 김밥마을 건대본점(화양동)_x000D_
+5월 5일18:21~18:30 혼식당(화양동) → 20:01 GS슈퍼 광진화양점 →20:04 테이큰커피 2호점(화양동)_x000D_
+5월 6일17:46 올리브영 건대점(화양동) → 20:29 맘스터치 건대로데오점(자양4동)_x000D_
+5월 7일23:54 이마트24 화양행운점_x000D_
+5월 8일17:06 보건소 검체 채취_x000D_
+5월 9일07:55 양성 확진판정</t>
+  </si>
+  <si>
+    <t>5월 6일00:30 편의점(정릉동) → 00:35 집 도착 → 16:00 약국(정릉동) → 16:01 카페(정릉동) → 16:10 집 귀가_x000D_
+5월 7일집에 머무름_x000D_
+5월 8일10:50 성북구보건소에서 코로나19 검사 실시_x000D_
+5월 9일검사 결과 양성 확진, 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 5일19:30 타자치구 → 19:30~ 자택(지하철)_x000D_
+5월 6일01:00~01:11 자택에서 마트 이동(도보) → 01:11~01:15 사당1동 소재 마트(마스크 착용, 방역완료, 접촉자 없음) →01:15~13:00 자택 → 13:00~13:45 타자치구 이동(지하철) → 13:45~22:00 타자치구 체류 → 22:00~23:00 자택 이동(지하철) → 23:00 자택_x000D_
+5월 7일1:30~12:14 타자치구(지하철, 출근) → 12:14~22:10 타자치구(회사) → 22:10~22:50 자택 이동(택시, 마스크 착용) → 22:50 자택_x000D_
+5월 8일08:27~08:30 사당1동 소재 마트 → 08:30~09:30 자택(도보) → 09:30~10:05 자택→보건소(택시, 마스크 착용) →10:05 동작구보건소 검사 → 10:20 보건소→자택(택시, 마스크 착용) → 10:55 자택_x000D_
+5월 9일10:00 확정 통보(양성판정)</t>
+  </si>
+  <si>
+    <t>5월 5일이태원 클럽 방문_x000D_
+5월 6일12:07 ~ 13:50 엘리트24휘트니스(화곡동)_x000D_
+5월 8일17:00 : 강서구 선별진료소 검사_x000D_
+5월 9일09:00 양성판정 → 14:00 서울대학교병원 이송(강서보건소 구급차)</t>
+  </si>
+  <si>
+    <t>5월 4일00:00 카페(신논현역 3번 출구) → 06:00 자택_x000D_
+5월 5일20:00 카페(도곡역 2번 출구) → 21:00 음식점(선릉역 1번 출구)_x000D_
+5월 6일02:20 자택_x000D_
+5월 7일06:35 자택_x000D_
+5월 8일16:00 강남구보건소 선별진료소 검사 → 18:00 카페(강남역 12번 출구) → 21:00 자택_x000D_
+5월 9일08:20 양성 확인</t>
+  </si>
+  <si>
+    <t>5월 5일09:30~20:40 직장 근무_x000D_
+5월 6일09:30~20:40 직장 근무_x000D_
+5월 7일09:30~20:40 직장 근무 → 21:02 ATM(방학1동) 이용 → 21:37~22:10 가왕코인노래연습장(창1동) 이용 → 22:10~귀가 / 도보_x000D_
+5월 8일09:20 직장 → 09:50~10:00 도봉구 선별진료소 → 11:01~11:04 창2동 주민센터 방문 → 11:13 ○○편의점(창2동) → 11:19~11:21 ○○슈퍼(창2동) → 14:25 ○○마트(창2동) → 14:25~14:29 ○○음식점(창2동) → 14:28~귀가 / 도보_x000D_
+5월 9일검사 결과 양성 확진</t>
+  </si>
+  <si>
+    <t>5월 6일00:30~00:34 편의점(정릉동) → 00:34~00:35 집 도착 →15:58~16:00 약국(정릉동) → 16:01 카페(정릉동) → 집 귀가_x000D_
+5월 7일집에 머무름_x000D_
+5월 8일10:50 성북구보건소에서 코로나19 검사 실시_x000D_
+5월 9일검사 결과 양성 확진, 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 5일10:00 수원역 → 10:30~19:30 강동구 이동동선 없음 → 19:30~21:00 수원역 → 자택(지하철 이동)_x000D_
+5월 6일17::00 종각역(지하철 이동) → 17:00~18:30 강동구 이동동선 없음 → 18:30~19:00 군자역 → 자택_x000D_
+5월 7일18:00 ~ 23:45 강동구 이동동선 없음 → 23:45 뚝섬유원지역 → 자택(지하철 이동)_x000D_
+5월 8일14:00 ~15:00 강동구보건소 → 자택(도보 이동) → 21:30 확진판정 → 24:00 국립중앙의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 5일종일 자택_x000D_
+5월 6일06:50~18:30 타구 출근_x000D_
+5월 7일07:00~18:00 타구 출근 → 18:00 국립중앙의료원 선별검사 → 19:00~ 자택_x000D_
+5월 8일16:00~ 서울대병원 음압격리병상으로 이송(중구보건소 앰뷸란스)</t>
+  </si>
+  <si>
+    <t>5월 4일 ~ 5월 5일용산구 이태원 클럽(트렁크. 퀸) 방문)_x000D_
+5월 6일증상발현(발열 37.8℃)하였으나 병원 방문 안함_x000D_
+5월 7일19:50 서울시 보건소 선별진료소 방문 검체 채취_x000D_
+5월 8일검사 결과 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 4일19:25 이전 타 지역 동선 → 19:25~ 19:31 지하철 2호선 신림역 → 19:31~ 19:55 KT신림직영점 → 19:55 도보 이동 귀가, 집에 머무름_x000D_
+5월 5일13:32~13:58 사이공본가 신림점 → 13:58~ 18:20 자전거 이용, 배달 아르바이트 → 18:20 이후 자전거 이용 지하철 2호선 신림역 도착 지하철 이용 타 지역으로 이동_x000D_
+5월 6일타 지역 동선_x000D_
+5월 7일02:34~ 08:30 택시 이용 귀가, 집에 머무름 → 08:30~ 11:40도보 이동 지하철 2호선 신림역 도착 지하철 승차 후 타 지역으로 이동 → 11:40~12:30 영등포구 보건소 선별진료소 방문, 검사진행 → 12:30 지하철 2호선 신림역 하차 도보 이동 귀가, 집에 머무름_x000D_
+5월 8일코로나19 양성판정, 중앙대학교병원 이송조치</t>
+  </si>
+  <si>
+    <t>5월 6일07:10 자택 → 585 마을버스 → 부평구청역 → 신연수역 → 4번버스 → 08:10~09:30 직장(남동구) → 4번버스 → 신연수역 → 부평구청역 → 585마을버스 → 10:30~11:30 자택(청천동) → 585마을버스 → 11:40 A피부과(부평동) → 11:57 B피부과(도보, 부평동) → 12:00 약국(도보, 부평동) → 12:14 음식점(도보, 부평동) → 13:15 지하상가(도보, 부평동) → 13:23 잡화점(도보, 부평동) → 585마을버스 → 14:45 자택(청천동) → 19:30 치과(택시, 부평동) → 20:30 지하상가(도보, 부평동) → 20:55 편의점(도보, 부평동) → 21:27 코인노래방(도보, 부평동) → 585마을버스 → 23:00 자택(청천동)_x000D_
+5월 7일07:10 자택(청천동) → 585 마을버스 → 부평구청역 → 신연수역 → 4번버스 → 08:10~17:30 직장(남동구) → 4번버스 → 신연수역 → 부평구청역 → 585마을버스 → 19:30 자택(청천동)_x000D_
+5월 8일07:10 자택(청천동) → 택시 → 부평구청역 → 신연수역 → 4번버스 → 08:10~08:50 직장(남동구) → 택시 → 09:30 자택(청천동) → 10:20 부평구보건소 선별진료소 검사(구급차)</t>
+  </si>
+  <si>
+    <t>5월 4일09:30 집에 머무름 → 09:30~ 09:45 버스 이용 지하철 2호선 서울대입구역 도착 →09:45~13:00 타 지역 동선 →13:00~ 13:15지하철 이용 서울대입구역 도착 → 13:15~23:00 집에 머무름 →23:00 버스 이용 타 지역으로 이동_x000D_
+5월 5일04:53 이전 타 지역 동선 → 04:53 택시 이용 귀가, 집에 머무름_x000D_
+5월 6일11:41~ 12:02 관악이비인후과(버스 이용) → 12:02~ 12:07 관악온누리약국 →12:10~ 12:13 세븐일레븐 관악점 → 12:13~ 15:00 버스 이용 귀가, 집에 머무름 → 15:00~ 15:15 버스 이용 지하철 2호선 서울대입구역 도착 → 15:15~17:02타 지역 동선 → 17:02~ 17:07 지하철 이용 서울대입구역 → 17:07~ 17:44 스타버스코인노래방 서울대입구점 → 17:48~ 18:32 할리스커피 서울대사거리점 → 18:41~ 19:10 너구리덮밥 → 19:19~ 20:35 슈퍼스타코인노래방 샤로수점 → 20:46~ 22:00 스타벅스 서울대역점→ 22:00 버스 이용 귀가, 집에 머무름_x000D_
+5월 7일10:10~ 10:40 관악구 보건소 선별진료소 방문, 검사진행 → 10:40 도보 이용 귀가, 집에 머무름_x000D_
+5월 8일코로나19 양성판정 고려대학교 구로병원 이송조치</t>
+  </si>
+  <si>
+    <t>5월 2일08:40 이전 타 지역 동선 → 08:40~ 09:00 지하철 이용 낙성대역 하차 → 09:00~21:30 집에 머무름 → 21:30 지하철 2호선 낙성대역 도착 지하철 이용 타 지역으로 이동_x000D_
+5월 3일107:25이전 타 지역 동선→ 07:25~ 07:28 지하철 이용 낙성대역 → 07:28~ 07:35 GS25 봉천해오름점(남부순환로 1979) → 07:35~ 23:40 집에 머무름 → 23:40~ 24:00 지하철 2호선 낙성대역 도착 신림역으로 이동_x000D_
+5월 4일00:00~ 01:44 솟을대문 신림역점 → 01:44~ 01:46 GS25 신림트라움점 → 01:46~ 02:30 솟을대문 신림역점 → 02:30~ 04:39 힐링노래방 → 04:39~ 17:00 신림역 주변 일대 배회 (지인 동행) 지하철 첫차(05:39) 승차 → 17:00 이후 지하철 2호선 낙성대역 도착 타 지역으로 이동_x000D_
+5월 5일08:35 이전 타 지역 동선 → 08:35~ 18:25 지하철 이용 낙성대역 하차 귀가, 집에 머무름 → 18:25~ 22:30 지하철 2호선 낙성대역 도착 타 지역으로 이동 → 22:30~ 22:47 지하철 이용 서울대입구역 도착 → 22:47~ 23:15 마라공방 서울대입구역점 → 23:15~ 23:33 도보 이동 → 23:33 독스PC방_x000D_
+5월 6일01:10 이전 독스PC방 → 01:20~ 01:35 베스타코인노래방 → 01:35~ 15:30 귀가 후 집에 머무름 → 15:30~ 16:40 지인 집(청룡동) 방문 → 16:40~ 17:10 서브웨이 낙성대점 → 17:10~ 18:25 자전거 이용 귀가 후 집에 머무름 → 18:25 지하철 2호선 낙성대역 도착 타 지역으로 이동_x000D_
+5월 7일03:00 이전 타 지역 동선→ 03:00~08:30 버스 이용 귀가 후 집에 머무름 (지인 동행) → 08:30~ 09:45 관악구 보건소 선별진료소 방문, 검사진행 → 09:45~ 09:58 도보 이동 (지인 동행) → 09:58~ 10:17 에그드랍 서울대입구역점 → 10:17~ 10:21 지하철 2호선 서울대입구역 도착 → 10:21 귀가 후 집에 머무름_x000D_
+5월 8일코로나19 양성판정 고려대학교 구로병원 이송조치</t>
+  </si>
+  <si>
+    <t>5월 4일08:00 자택 → 08:00~10:30 노량진1동 콩고 피트니스(도보, 마스크 착용) → 10:30~13:25 자택 → 13:25~13:28 노량진1동 소재 커피전문점 → 13:28~15:45 자택 → 15:45~15:53 노량진1동 소재 음식판매점 → 15:53~20:15 자택 → 20:15~20:18 노량진1동 소재 음식판매점 → 20:18~20:22 노량진1동 소재 편의점(도보, 마스크 착용, 접촉자 없음) → 20:22~22:09 자택 → 22:09~22:14 노량진1동 소재 슈퍼마켓 → 22:14 자택_x000D_
+5월 5일10:09 자택 → 10:09~12:09 노량진1동 콩고 피트니스(도보, 마스크 착용) → 12:09~13:37 자택 → 13:37~13:40 노량진동 소재 커피전문점(도보, 마스크 착용, 접촉자 없음) → 13:40~20:01 자택 → 20:01~22:00 타자치구(지하철, 접촉자 1명) → 22:00~22:18 노량진 이동(지하철) → 22:18~22:21 노량진1동 소재 음식판매점 → 22:21 자택_x000D_
+5월 6일09:53 자택 → 09:53~11:30 노량진1동 콩고 피트니스 → 11:30~13:24 자택 → 13:24~15:51 타자치구(지하철, 접촉자 1명) → 15:51 자택_x000D_
+5월 7일12:41 자택→ 12:41~12:45 노량진1동 소재 슈퍼마켓 → 12:46~13:00 노량진1동 소재 커피전문점(도보, 마스크 착용) → 13:00~14:15 용산구보건소(자차 이동, 검사 실시) → 14:15 자택_x000D_
+5월 8일10:20 확정 통보(양성판정)</t>
   </si>
 </sst>
 </file>
@@ -782,13 +1110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,1416 +1129,1788 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>11036</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>11035</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>11030</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>11029</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>11009</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>11006</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>11008</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>11007</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11">
+        <v>11015</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12">
+        <v>11002</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13">
+        <v>11004</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14">
+        <v>11003</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
+      <c r="B15">
+        <v>11016</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
+      <c r="B16">
+        <v>11000</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
+      <c r="B17">
+        <v>11005</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18">
+        <v>11001</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
+      <c r="B19">
+        <v>11013</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
+      <c r="B20">
+        <v>10995</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
+      <c r="B21">
+        <v>10991</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>10977</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
       <c r="E22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
+      <c r="B23">
+        <v>10956</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
+      <c r="B24">
+        <v>10947</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
+      <c r="B25">
+        <v>10951</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
+      <c r="B26">
+        <v>10948</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>10949</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
       <c r="E27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>30</v>
+      <c r="B28">
+        <v>10955</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
+      <c r="B29">
+        <v>10945</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
+      <c r="B30">
+        <v>10941</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
+      <c r="B31">
+        <v>10946</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
+      <c r="B32">
+        <v>10954</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
+      <c r="B33">
+        <v>10961</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
+      <c r="B34">
+        <v>10878</v>
       </c>
       <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>37</v>
+      <c r="B35">
+        <v>10936</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
+      <c r="B36">
+        <v>10932</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
+      <c r="B37">
+        <v>10935</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>40</v>
+      <c r="B38">
+        <v>10927</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
+      <c r="B39">
+        <v>10929</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
+      <c r="B40">
+        <v>10912</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
+      <c r="B41">
+        <v>10920</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>10930</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="E41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>45</v>
+      <c r="B43">
+        <v>10925</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
+      <c r="B44">
+        <v>10914</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>47</v>
+      <c r="B45">
+        <v>10921</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
+      <c r="B46">
+        <v>10922</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>49</v>
+      <c r="B47">
+        <v>10895</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>50</v>
+      <c r="B48">
+        <v>10896</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>51</v>
+      <c r="B49">
+        <v>10889</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>52</v>
+      <c r="B50">
+        <v>10879</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>53</v>
+      <c r="B51">
+        <v>10891</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>54</v>
+      <c r="B52">
+        <v>10887</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>55</v>
+      <c r="B53">
+        <v>10888</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>56</v>
+      <c r="B54">
+        <v>10890</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>57</v>
+      <c r="B55">
+        <v>10881</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>58</v>
+      <c r="B56">
+        <v>10883</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>59</v>
+      <c r="B57">
+        <v>10898</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>60</v>
+      <c r="B58">
+        <v>10897</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>61</v>
+      <c r="B59">
+        <v>10882</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>62</v>
+      <c r="B60">
+        <v>10880</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>63</v>
+      <c r="B61">
+        <v>10885</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>64</v>
+      <c r="B62">
+        <v>10886</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>65</v>
+      <c r="B63">
+        <v>10884</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>66</v>
+      <c r="B64">
+        <v>10892</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>67</v>
+      <c r="B65">
+        <v>10894</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>68</v>
+      <c r="B66">
+        <v>10893</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>69</v>
+      <c r="B67">
+        <v>10866</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>70</v>
+      <c r="B68">
+        <v>10856</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>71</v>
+      <c r="B69">
+        <v>10859</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>72</v>
+      <c r="B70">
+        <v>10870</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>73</v>
+      <c r="B71">
+        <v>10869</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>74</v>
+      <c r="B72">
+        <v>10867</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>75</v>
+      <c r="B73">
+        <v>10861</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>76</v>
+      <c r="B74">
+        <v>10873</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>77</v>
+      <c r="B75">
+        <v>10863</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>78</v>
+      <c r="B76">
+        <v>10855</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>79</v>
+      <c r="B77">
+        <v>10868</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>80</v>
+      <c r="B78">
+        <v>10850</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>81</v>
+      <c r="B79">
+        <v>10828</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>82</v>
+      <c r="B80">
+        <v>10830</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>83</v>
+      <c r="B81">
+        <v>10836</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>84</v>
+      <c r="B82">
+        <v>10826</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>85</v>
+      <c r="B83">
+        <v>10838</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>10827</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>10829</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>10840</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>10831</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="C84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" t="s">
-        <v>136</v>
+      <c r="B88">
+        <v>10839</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>10832</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>10833</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/crawlingByPython/이태원발 확진환자 크롤링 결과.xlsx
+++ b/crawlingByPython/이태원발 확진환자 크롤링 결과.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="151">
   <si>
     <t>환자 번호</t>
   </si>
@@ -31,7 +31,7 @@
     <t>이동경로</t>
   </si>
   <si>
-    <t>확인중</t>
+    <t>5/16</t>
   </si>
   <si>
     <t>5/15</t>
@@ -61,6 +61,15 @@
     <t>5/08</t>
   </si>
   <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
     <t>은평구</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>서대문구</t>
   </si>
   <si>
-    <t>용산구</t>
-  </si>
-  <si>
     <t>광진구</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t>영등포구</t>
   </si>
   <si>
-    <t>송파구</t>
-  </si>
-  <si>
     <t>금천구</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>동작구</t>
   </si>
   <si>
-    <t>노원구</t>
-  </si>
-  <si>
     <t>성동구</t>
   </si>
   <si>
@@ -139,15 +139,15 @@
     <t>서울의료원</t>
   </si>
   <si>
+    <t>서북병원</t>
+  </si>
+  <si>
     <t>순천향병원</t>
   </si>
   <si>
     <t>강북삼성병원</t>
   </si>
   <si>
-    <t>서북병원</t>
-  </si>
-  <si>
     <t>한양대병원</t>
   </si>
   <si>
@@ -191,17 +191,43 @@
   </si>
   <si>
     <t>보라매병원</t>
+  </si>
+  <si>
+    <t>5월 11일10:50~ 화랑대역에서 관외 회사 출근(전철역 도보이동) → 23:00~ 퇴근(화랑대역 도착, 자택 도보 이동)_x000D_
+5월 12일10:50~ 화랑대역에서 관외 회사 출근(전철역 도보이동) → 23:00~ 퇴근(화랑대역 도착, 자택 도보 이동)_x000D_
+5월 13일10:50~ 화랑대역에서 관외 직장 출근(전철역 도보이동) → 12:45 관외 직장에서 자가격리 통보 받음 → 14:11~ 퇴근(화랑대역 도착, 자택 도보 이동)후 자택 머무름 ※ 증상발현(오전) : 콧물, 인후통, 머리가 묵직함_x000D_
+5월 14일11:10 자택에서 을지병원(자차) → 11:30 을지병원 검체 채취 → 12:00~ 자택 이동 후 머무름(자차) → 18:00 양성판정_x000D_
+5월 15일 하루종일 자택 ※ 질병관리본부에 재검사 의뢰(을지병원→질병관리본부)_x000D_
+5월 16일14:00 양성판정 → 16:30 서울의료원 입원(보건소 구급차 이용)</t>
+  </si>
+  <si>
+    <t>5월 9일 ~ 5월 10일집에 머무름_x000D_
+5월 11일14:30 집에서 나옴(계단) → 14:50∼15:00 송파구 보건소 선별진료소(구급차) → 15:30 집(구급차, 계단)_x000D_
+5월 12일 ~ 5월 14일집에 머무름_x000D_
+5월 15일15:30 집에서 나옴(계단) → 15:50~16:00 송파구 보건소 선별진료소 (구급차) → 16:20 집(구급차, 계단)_x000D_
+5월 16일15:00 서울의료원 이송</t>
+  </si>
+  <si>
+    <t>5월 13일07:10~ 화랑대역에서 관외 이동(전철역 도보이동) → 14:10~ 화랑대역 도착(전철역 도보이동), 자택(도보)_x000D_
+5월 14일하루종일 자택_x000D_
+5월 15일10:45 자택에서 보건소 출발(자차) → 11:15~11:30 보건소 검체 채취) → 11:50~자택 이동 후 머무름(자차)_x000D_
+5월 16일08:00 양성판정 → 14:00 서울의료원 입원(보건소 구급차 이용)</t>
+  </si>
+  <si>
+    <t>5월 9일 ~ 5월 13일자택에 머무름 (자가격리 중) *5월 12일 증상 발현(콧물, 발열)_x000D_
+5월 14일용산구 보건소 선별진료소 검체채취_x000D_
+5월 15일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 11일21:10 ○○음식점(신사동) → 22:00 귀가_x000D_
+5월 12일 ~ 5월 13일자택에 머무름_x000D_
+5월 14일14:00~14:30 버스(702A)이동, 은평구보건소 선별진료소 검사 → 15:00~15:20 버스(7212)이동, 자택 귀가_x000D_
+5월 15일20:30 국가지정격리병상(서울의료원)으로 이송</t>
   </si>
   <si>
     <t>5월 12일 ~ 5월 13일자택_x000D_
 5월 14일12:00 강남구보건소 선별진료소 검사_x000D_
 5월 15일09:00 양성 확인</t>
-  </si>
-  <si>
-    <t>5월 12일11:00 자택(불광1동)도보 → 불광역(6호선) → 11:40효창공원역(6호선) → 근무지 도착(익일 오전 09시까지 근무) _x000D_
-5월 13일09:00 효창공원역(6호선) → 불광역(6호선) → 09:40 자택_x000D_
-5월 14일12:00 종로구보건소 선별진료소 검사 → 12:40 자택(불광1동)_x000D_
-5월 15일14:00 국가지정격리병상(서북병원)으로 이송</t>
   </si>
   <si>
     <t>5월 5일집에 머무름_x000D_
@@ -218,14 +244,9 @@
   </si>
   <si>
     <t>5월 11일11:34 신촌원조감자탕 → 12:34 파리바게뜨 카페 → 18:07 노브랜드버거 신촌역점)_x000D_
-5월 12일19:20~20:50 1943 신촌점 → 21:30 리코스타코인노래연습장 신촌점 → 22:00 자택(도보)_x000D_
+5월 12일19:20~20:50 \1943\ 신촌점 → 21:30 리코스타코인노래연습장 신촌점 → 22:00 자택(도보)_x000D_
 5월 13일 ~12:00 타 구 → 12:21 ~ ****약국(신촌동) → 12:40 자택(도보) → 17:50 *치킨 신촌점(신촌동) → 18:00 자택(도보)_x000D_
 5월 14일12:00~15:00 서대문구보건소 선별진료소 → 15:00~15:50 마을버스(03번) → 15:50~16:10 아우네분식 → 16:17 ***약국 (신촌동) → 16:40 자택(도보)</t>
-  </si>
-  <si>
-    <t>5월 9일 ~ 5월 13일자택에 머무름 (자가격리 중) *5월 12일 증상 발현(콧물, 발열)_x000D_
-5월 14일용산구 보건소 선별진료소 검체채취_x000D_
-5월 15일07:00 양성 판정</t>
   </si>
   <si>
     <t>5월 10일검체 채취 음성판정 자가격리중_x000D_
@@ -242,10 +263,10 @@
 5월 14일07:00 자택(코로나19 검사 *보건소의사 출장 검체 채취) → 12:30 확진 판정 → 17:00 서울의료원 이송</t>
   </si>
   <si>
-    <t>5월 11일08:21 회사(천호동, 도보) → 12:00 점심식사(배달)  → 18:20~18:48 회사에서 집(도보)_x000D_
-5월 12일08:27 회사(천호동, 도보) → 12:00 점심식사(배달)  → 18:20~18:48 회사에서 집(도보)_x000D_
-5월 13일08:27 회사(천호동, 도보) → 12:00 점심식사(배달)  → 18:20~18:48 회사 → 홈런마트(길동, 도보) → 18:48 자택_x000D_
-5월 14일02:00 강동구보건소(자차이동)  → 02:00~ 코로나19 검사(제1선별진료소) → 자택귀가 → 13:30 확진 판정 → 17:30 서울의료원 이송</t>
+    <t>5월 11일08:21 회사(천호동, 도보) → 12:00 점심식사(배달) → 18:20~18:48 회사에서 집(도보)_x000D_
+5월 12일08:27 회사(천호동, 도보) → 12:00 점심식사(배달) → 18:20~18:48 회사에서 집(도보)_x000D_
+5월 13일08:27 회사(천호동, 도보) → 12:00 점심식사(배달) → 18:20~18:48 회사 → 홈런마트(길동, 도보) → 18:48 자택_x000D_
+5월 14일02:00 강동구보건소(자차이동) → 02:00~ 코로나19 검사(제1선별진료소) → 자택귀가 → 13:30 확진 판정 → 17:30 서울의료원 이송</t>
   </si>
   <si>
     <t>5월 11일06:20 ~ 07:04 김가네(우사단로, 음식점) → 07:05 ~ 07:07 편의점 → 07:10 자택 귀가 *도보_x000D_
@@ -270,7 +291,7 @@
   </si>
   <si>
     <t>5월 8일11:24 집에서 나옴(엘리베이터) → 11:27 버스 통해 타지역 이동 → 13:39 버스 통해 송파구 하차 → 13:44~13:49 롯데슈퍼 신천점(도보) → 13:51 집(도보)_x000D_
-5월 9일11:01 집에서 나옴(엘리베이터) → 11:11~11:25 희망동물병원(잠실동, 도보) → 11:32 집(도보) → 14:42 집에서 나와 택시 이용(엘리베이터) → 15:00 택시 하차 → 15:12~16:23 봉평발아메밀막국수(석촌동, 도보) → 16:23~17:43 *추가 확인중 → 17:43~17:53 버스 이용 → 18:01 집(도보, 엘리베이터) → 21:08 집에서 나옴(엘리베이터)  → 21:23~21:29 롯데슈퍼 신천점(도보) → 21:31 집(도보, 엘리베이터)_x000D_
+5월 9일11:01 집에서 나옴(엘리베이터) → 11:11~11:25 희망동물병원(잠실동, 도보) → 11:32 집(도보) → 14:42 집에서 나와 택시 이용(엘리베이터) → 15:00 택시 하차 → 15:12~16:23 봉평발아메밀막국수(석촌동, 도보) → 16:23~17:43 *추가 확인중 → 17:43~17:53 버스 이용 → 18:01 집(도보, 엘리베이터) → 21:08 집에서 나옴(엘리베이터) → 21:23~21:29 롯데슈퍼 신천점(도보) → 21:31 집(도보, 엘리베이터)_x000D_
 5월 10일집에 머무름_x000D_
 5월 11일14:09 집에서 나옴(엘리베이터) → 14:19~15:02 희망동물병원(잠실동, 도보) → 15:04~15:05 더블유약국(잠실동, 도보) → 15:15 집(도보) → 18:04 집에서 나옴(엘리베이터) → 18:10 버스 통해 타지역 이동 → 21:24 버스 통해 송파구 하차 → 21:29~21:35 롯데슈퍼 신천점(도보) → 21:38 집(엘리베이터)_x000D_
 5월 12일10:26 집에서 나옴(엘리베이터) → 10:27~10:37 신천상쾌한이비인후과의원(잠실동, 도보) → 10:41~10:42 더하늘약국(잠실동, 도보, 계단) → 10:46 집(도보, 엘리베이터)_x000D_
@@ -319,19 +340,6 @@
 5월 11일자택 머무름_x000D_
 5월 12일17:06 자택 외출 → 17:45 ~ 17:46 맑은샘 약국(길동, 도보) → 17:46 자택 귀가(도보)_x000D_
 5월 13일11:40 자택 외출 → 11:40 ~ 11:50 지하철 길동역(도보) → 11:50 ~ 12:10 지하철(5호선 길동역 → 5호선 천호역 경유 → 8호선 강동구청역) → 12:10 ~ 12:20 지하철 강동구청역(8호선) → 강동구보건소(도보) → 12:20 ~ 12:50 코로나19 검사(제1선별진료소) → 12:50 ~ 13:00 강동구보건소 → 지하철 강동구청역(8호선, 도보) → 13:00 ~ 13:15 길동역(5호선) 도착 → 13:15 ~ 13:26 자택 귀가(도보) → 21:30 확진(양성) 판정 → 23:43 서울의료원 이송</t>
-  </si>
-  <si>
-    <t>5월 11일- 17:00 인천공항 도착 → 19:30 노원구 보건소 도착(공항버스) → 19:45 검체 채취 → 19:58 자택 귀가(구청 버스, 엘리베이터 혼자 탑승)_x000D_
-5월 12일하루종일 자택(자가격리)_x000D_
-5월 13일13:00 양성판정 → 16:30 서울의료원 입원(보건소 앰블런스 이용)</t>
-  </si>
-  <si>
-    <t>5월 6일08:00~08:50 가양역 - 노량진역 - 서울역(지하철) → 08:50~18:10 타구 동선 → 18:10~19:00 서울역 - 노량진역 - 가양역(지하철) → 19:10 자택(도보)_x000D_
-5월 7일08:00~08:50 가양역 - 노량진역 - 서울역(지하철) → 08:50~23:30 타구 동선(확진환자와 접촉 추정) → 23:30~24:00 홍대입구역 - 당산역 -가양역(지하철) → 24:10 자택(도보)_x000D_
-5월 8일 ~ 5월 10일자택_x000D_
-5월 11일 08:00~08:50 가양역 - 노량진역 - 서울역(지하철) → 08:50~19:00 타구 동선 → 19:00~19:50 서울역 - 노량진역 - 가양역(지하철) → 19:10 자택(도보)_x000D_
-5월 12일10:00 강서보건소 선별진료소 검사(지하철)_x000D_
-5월 13일13:00 양성판정 → 16:00 서북병원 이송(강서보건소 구급차)</t>
   </si>
   <si>
     <t>5월 9일 ~ 5월 11일 자가격리 중으로 외출하지 않음_x000D_
@@ -616,15 +624,6 @@
 5월 9일07:00 양성 판정</t>
   </si>
   <si>
-    <t>5월 7일19:57 영국에서 입국, 서초구보건소 이동(리무진 이용) 후 검사_x000D_
-5월 8일자가격리_x000D_
-5월 9일재검사 후 확진</t>
-  </si>
-  <si>
-    <t>5월 8일05:30 필리핀에서 인천공항 입국(마스크 착용)(해외입국자 전용리무진 이용) → 09:05 : 서대문구 선별진료소 검체 채취_x000D_
-5월 9일12:00 : 양성판정 → 15:30 보라매병원으로 이송</t>
-  </si>
-  <si>
     <t>5월 5일00:53 집에서 나옴(엘리베이터) / 마스크 미착용 → 01:12~02:54 탐앤탐스 잠실새내역점(택시) / 마스크 미착용 → 02:59~04:43 엔젤스 코인노래연습장 잠실신천점(도보) / 마스크 미착용 → 04:49~05:23 롯데리아 잠실새내역점(도보) / 마스크 미착용 → 05:35~06:00 근처 야외 벤치(도보) / 마스크 미착용 → 06:12~15:44 집(버스, 엘리베이터) / 마스크 미착용 → 16:15~16:25 서울리즘 카페(송파동, 엘리베이터, 지인차) / 마스크 미착용 → 16:50~22:40 타지역(지인차) → 23:02 지인차 통해 집(엘리베이터) / 마스크 미착용_x000D_
 5월 6일20:17~20:22 집 1층 현관 쓰레기장(엘리베이터) / 마스크 착용 → 20:23 집_x000D_
 5월 7일집에 머무름_x000D_
@@ -753,6 +752,49 @@
 5월 6일09:53 자택 → 09:53~11:30 노량진1동 콩고 피트니스 → 11:30~13:24 자택 → 13:24~15:51 타자치구(지하철, 접촉자 1명) → 15:51 자택_x000D_
 5월 7일12:41 자택→ 12:41~12:45 노량진1동 소재 슈퍼마켓 → 12:46~13:00 노량진1동 소재 커피전문점(도보, 마스크 착용) → 13:00~14:15 용산구보건소(자차 이동, 검사 실시) → 14:15 자택_x000D_
 5월 8일10:20 확정 통보(양성판정)</t>
+  </si>
+  <si>
+    <t>5월 3일종일 자택에 머무름_x000D_
+5월 4일08:08 ~ 08:10 카페 *도보, 마스크 착용, 접촉자 없음 → 08:25 직장 출근 *도보, 마스크 착용 →11:35 ~ 12:05 구내식당 점심 식사 *3명 동행 → 18:02 ~ 18:31 퇴근 후 음식점 저녁 식사 *접촉자 없음 → 19:00 자택 도착 *도보 → 19:30 ~ 22:30 별밤포차(한강대로) *도보, 마스크 미착용, 3명 동행, 접촉자 1명 → 22:30 ~ 00:30 노래방 *도보, 3명 동행_x000D_
+5월 5일증상 발현(발열, 근육통) 00:50 자택 도착 *도보 → 09:40 ~ 11:49 병원 내원 링거 처방 → 11:49 ~ 11:50 약국 → 12:06 ~ 12:27 음식점 → 13:00 자택 도착_x000D_
+5월 6일08:25 직장 출근 *도보 → 11:30 ~ 12:05 음식점 점심 식사 *3명 동행 → 17:30 구내식당 저녁 식사 *1명 동행 → 18:30 ~ 18:44 병원 내원 → 18:45 ~ 18:46 약국 방문 → 19:13 ~ 19:15 카페 → 19:16 ~ 19:18 잡화점 → 19:40 자택 이동 *도보_x000D_
+5월 7일09:44 용산구 보건소 선별진료소 검체채취 *도보 → 10:10 자택 이동 *도보_x000D_
+5월 8일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 2일00:00 ~ 07:00 킹클럽(우사단로, 클럽), 퀸(우사단로, 주점) *도보 → 07:30 패스트푸드점 *도보, 접촉자 없음 → 008:30 자택 이동 *도보 → 23:00 음식점 *도보 _x000D_
+5월 3일00:00 ~ 06:00 킹클럽(우사단로, 클럽), 퀸(우사단로, 주점) *도보 → 06:30 패스트푸드점 *도보, 접촉자 없음 → 07:30 자택 이동 *도보 → 18:30 타구 이동_x000D_
+5월 4일09:00 우리 구 이동 *지하철 이용, 마스크 착용 → 09:30 자택 도착 → 23:00 타구 이동 *택시 이용, 마스크 착용, 2명 동행_x000D_
+5월 5일03:50 우리 구 이동 *택시 이용, 마스크 착용, 2명 동행 → 04:30 패스트푸드점 *접촉자 없음 → 05:00 자택 이동 *도보_x000D_
+5월 6일종일 자택에 머무름_x000D_
+5월 7일증상 발현(발열, 인후통) 13:20 ~ 13:42 용산구 보건소 선별진료소 방문 및 검체채취 *도보 → 14:10 자택 이동 *도보_x000D_
+5월 8일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 2일00:00 ~ 07:00 킹클럽(우사단로, 클럽), 퀸(우사단로, 주점) *도보 → 07:30 패스트푸드점 → 08:30 자택 이동 *도보 → 23:00 음식점 *도보 _x000D_
+5월 3일00:00 ~ 06:00 킹클럽(우사단로, 클럽), 퀸(우사단로, 주점) *도보 → 06:30 패스트푸드점 *도보, 접촉자 없음 → 07:30 자택 이동 *도보 → 21:30 타구 이동_x000D_
+5월 4일증상 발현(피로감) 03:15 자택 이동 *택시 이용, 마스크 착용, 2명 동행 → 23:00 타구 이동 *택시 이용, 마스크 착용, 2명 동행_x000D_
+5월 5일03:50 우리 구 이동 *택시 이용, 마스크 착용, 2명 동행 → 04:30 패스트푸드점 *접촉자 없음 → 05:00 자택 이동 *도보_x000D_
+5월 6일종일 자택에 머무름_x000D_
+5월 7일13:20 ~ 13:42 용산구 보건소 선별진료소 방문 및 검체채취 *도보 → 14:10 자택 이동 *도보_x000D_
+5월 8일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>5월 2일00:00 ~ 07:00 킹클럽(우사단로, 클럽), 퀸(우사단로, 주점) → 07:30 패스트푸드점 → 08:30 자택 이동 *도보 → 23:00 음식점 *도보 _x000D_
+5월 3일00:00 ~ 06:00 킹클럽(우사단로, 클럽), 퀸(우사단로, 주점) *도보 → 06:30 패스트푸드점 *도보, 접촉자 없음 → 07:30 자택 이동 *도보 → 21:30 타구 이동_x000D_
+5월 4일03:15 자택 이동 *택시 이용, 마스크 착용, 2명 동행 → 23:00 타구 이동 *택시 이용, 마스크 착용, 2명 동행_x000D_
+5월 5일03:50 우리 구 이동 *택시 이용, 마스크 착용, 2명 동행 → 04:30 패스트푸드점 *접촉자 없음 → 05:00 자택 이동 *도보_x000D_
+5월 6일20:30 주점 *도보 → 22:13 편의점 *도보, 접촉자 없음 → 22:18 자택 이동 *도보_x000D_
+5월 7일13:20 ~ 13:42 용산구 보건소 선별진료소 방문 및 검체채취 *도보 → 14:10 자택 이동 *도보_x000D_
+5월 8일07:00 양성 판정</t>
+  </si>
+  <si>
+    <t>4월 30일 00:00 ~ 02:00 탑플레이스 종로본점PC방 → 11:02, 18:50 프리즈커피(Please Coffee) → 12:00 ~ 22:30 홍롱롱(중식당) → 17:39, 21:26 편의점 방문(익선동)_x000D_
+5월 1일11:42, 11:49 편의점 방문(익선동) → 11:44, 17:46 프리즈커피(Please Coffee)_x000D_
+5월 2일20:34 편의점 방문(익선동) (접촉자 및 자가격리자 없어 상호명 비공개)_x000D_
+5월 3일 ~ 5월 6일12:00 ~ 22:30 홍롱롱(중식당)_x000D_
+5월 7일13:20 ~ 13:45 종로구보건소 선별진료소 검사 → 13:48 ~ 13:49 편의점 방문(창성동) → 14:06 프리즈커피(Please Coffee) → 14:14 편의점 방문(익선동) (접촉자 및 자가격리자 없어 상호명 비공개) → 23:45 양성판정_x000D_
+5월 8일보라매병원 이송</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11036</v>
+        <v>11050</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1150,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1158,19 +1200,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11035</v>
+        <v>11042</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1178,19 +1220,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11030</v>
+        <v>11043</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1198,39 +1240,39 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11029</v>
+        <v>11044</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>11036</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1238,19 +1280,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11009</v>
+        <v>11035</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1258,19 +1300,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11006</v>
+        <v>11030</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1278,19 +1320,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11008</v>
+        <v>11029</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1298,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11007</v>
+        <v>11009</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1310,7 +1352,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1318,19 +1360,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11015</v>
+        <v>11006</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1338,19 +1380,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11002</v>
+        <v>11008</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1358,19 +1400,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11004</v>
+        <v>11007</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1378,19 +1420,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11003</v>
+        <v>11015</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1398,19 +1440,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11016</v>
+        <v>11002</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1418,19 +1460,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11000</v>
+        <v>11004</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1438,19 +1480,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1458,19 +1500,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11001</v>
+        <v>11016</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1478,19 +1520,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11013</v>
+        <v>11000</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1498,19 +1540,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10995</v>
+        <v>11005</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1518,19 +1560,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10991</v>
+        <v>11001</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1538,19 +1580,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10977</v>
+        <v>11013</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1558,19 +1600,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10956</v>
+        <v>10995</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1578,19 +1620,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10947</v>
+        <v>10991</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1598,19 +1640,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10951</v>
+        <v>10977</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1618,19 +1660,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10948</v>
+        <v>10956</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1638,19 +1680,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10949</v>
+        <v>10947</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1658,19 +1700,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10955</v>
+        <v>10951</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1678,19 +1720,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10945</v>
+        <v>10948</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1698,19 +1740,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10941</v>
+        <v>10949</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1718,19 +1760,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10946</v>
+        <v>10955</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1738,19 +1780,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10954</v>
+        <v>10945</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1758,19 +1800,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10961</v>
+        <v>10941</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1778,19 +1820,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10878</v>
+        <v>10946</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1798,19 +1840,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10936</v>
+        <v>10954</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1818,19 +1860,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10932</v>
+        <v>10961</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1838,19 +1880,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10935</v>
+        <v>10878</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1858,19 +1900,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10927</v>
+        <v>10936</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1878,19 +1920,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10929</v>
+        <v>10932</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1898,19 +1940,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10912</v>
+        <v>10935</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1918,19 +1960,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10920</v>
+        <v>10927</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1938,19 +1980,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10930</v>
+        <v>10929</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1958,19 +2000,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10925</v>
+        <v>10912</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1978,19 +2020,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10914</v>
+        <v>10920</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1998,19 +2040,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10921</v>
+        <v>10930</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2018,19 +2060,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10922</v>
+        <v>10925</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2038,19 +2080,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10895</v>
+        <v>10914</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2058,19 +2100,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10896</v>
+        <v>10921</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2078,19 +2120,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10889</v>
+        <v>10922</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2098,19 +2140,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10879</v>
+        <v>10895</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2118,19 +2160,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10891</v>
+        <v>10896</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2138,19 +2180,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10887</v>
+        <v>10889</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2158,19 +2200,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10888</v>
+        <v>10879</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2178,19 +2220,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10890</v>
+        <v>10891</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2198,19 +2240,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10881</v>
+        <v>10887</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2218,19 +2260,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10883</v>
+        <v>10888</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2238,19 +2280,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10898</v>
+        <v>10890</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2258,19 +2300,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10897</v>
+        <v>10881</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2278,19 +2320,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>10882</v>
+        <v>10883</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2298,19 +2340,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10880</v>
+        <v>10898</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2318,19 +2360,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10885</v>
+        <v>10897</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2338,7 +2380,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10886</v>
+        <v>10882</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -2350,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2358,19 +2400,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10884</v>
+        <v>10880</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2378,19 +2420,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10892</v>
+        <v>10885</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2398,19 +2440,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10894</v>
+        <v>10886</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2418,19 +2460,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10893</v>
+        <v>10884</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2438,19 +2480,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10866</v>
+        <v>10892</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2458,19 +2500,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10856</v>
+        <v>10894</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2478,7 +2520,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10859</v>
+        <v>10893</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2487,10 +2529,10 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2498,19 +2540,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10870</v>
+        <v>10866</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2518,19 +2560,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10869</v>
+        <v>10856</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2538,19 +2580,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10867</v>
+        <v>10859</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
         <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2558,19 +2600,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10861</v>
+        <v>10870</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2578,19 +2620,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10873</v>
+        <v>10869</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2598,19 +2640,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10863</v>
+        <v>10867</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2618,19 +2660,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10855</v>
+        <v>10861</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2638,19 +2680,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10868</v>
+        <v>10873</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2658,19 +2700,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10850</v>
+        <v>10863</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2678,19 +2720,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10828</v>
+        <v>10855</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2698,19 +2740,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10830</v>
+        <v>10868</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2718,19 +2760,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10836</v>
+        <v>10850</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2738,19 +2780,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10826</v>
+        <v>10828</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2758,19 +2800,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10838</v>
+        <v>10830</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2778,19 +2820,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>10827</v>
+        <v>10836</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2798,19 +2840,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>10829</v>
+        <v>10826</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2818,19 +2860,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>10840</v>
+        <v>10838</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2838,19 +2880,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10831</v>
+        <v>10827</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2858,19 +2900,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>10839</v>
+        <v>10829</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2878,19 +2920,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10832</v>
+        <v>10840</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2898,19 +2940,79 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>10833</v>
+        <v>10831</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>10839</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>10832</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>10833</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
         <v>39</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E93" t="s">
         <v>58</v>
       </c>
-      <c r="F90" t="s">
-        <v>146</v>
+      <c r="F93" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
